--- a/stock/data/이마트.xlsx
+++ b/stock/data/이마트.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3157"/>
+  <dimension ref="A1:G3190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73056,10 +73056,769 @@
         <v>67700</v>
       </c>
       <c r="F3157" t="n">
-        <v>166731</v>
+        <v>169667</v>
       </c>
       <c r="G3157" t="n">
         <v>-0.8784773060029283</v>
+      </c>
+    </row>
+    <row r="3158">
+      <c r="A3158" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B3158" t="n">
+        <v>67700</v>
+      </c>
+      <c r="C3158" t="n">
+        <v>69200</v>
+      </c>
+      <c r="D3158" t="n">
+        <v>67600</v>
+      </c>
+      <c r="E3158" t="n">
+        <v>69100</v>
+      </c>
+      <c r="F3158" t="n">
+        <v>203332</v>
+      </c>
+      <c r="G3158" t="n">
+        <v>2.06794682422452</v>
+      </c>
+    </row>
+    <row r="3159">
+      <c r="A3159" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B3159" t="n">
+        <v>67800</v>
+      </c>
+      <c r="C3159" t="n">
+        <v>68200</v>
+      </c>
+      <c r="D3159" t="n">
+        <v>67400</v>
+      </c>
+      <c r="E3159" t="n">
+        <v>67900</v>
+      </c>
+      <c r="F3159" t="n">
+        <v>152697</v>
+      </c>
+      <c r="G3159" t="n">
+        <v>-1.736613603473227</v>
+      </c>
+    </row>
+    <row r="3160">
+      <c r="A3160" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B3160" t="n">
+        <v>67600</v>
+      </c>
+      <c r="C3160" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D3160" t="n">
+        <v>67100</v>
+      </c>
+      <c r="E3160" t="n">
+        <v>67200</v>
+      </c>
+      <c r="F3160" t="n">
+        <v>148973</v>
+      </c>
+      <c r="G3160" t="n">
+        <v>-1.030927835051546</v>
+      </c>
+    </row>
+    <row r="3161">
+      <c r="A3161" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B3161" t="n">
+        <v>67400</v>
+      </c>
+      <c r="C3161" t="n">
+        <v>67600</v>
+      </c>
+      <c r="D3161" t="n">
+        <v>66800</v>
+      </c>
+      <c r="E3161" t="n">
+        <v>66800</v>
+      </c>
+      <c r="F3161" t="n">
+        <v>143642</v>
+      </c>
+      <c r="G3161" t="n">
+        <v>-0.5952380952380952</v>
+      </c>
+    </row>
+    <row r="3162">
+      <c r="A3162" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B3162" t="n">
+        <v>66800</v>
+      </c>
+      <c r="C3162" t="n">
+        <v>66800</v>
+      </c>
+      <c r="D3162" t="n">
+        <v>65000</v>
+      </c>
+      <c r="E3162" t="n">
+        <v>65400</v>
+      </c>
+      <c r="F3162" t="n">
+        <v>230283</v>
+      </c>
+      <c r="G3162" t="n">
+        <v>-2.095808383233533</v>
+      </c>
+    </row>
+    <row r="3163">
+      <c r="A3163" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B3163" t="n">
+        <v>65100</v>
+      </c>
+      <c r="C3163" t="n">
+        <v>65100</v>
+      </c>
+      <c r="D3163" t="n">
+        <v>63400</v>
+      </c>
+      <c r="E3163" t="n">
+        <v>63500</v>
+      </c>
+      <c r="F3163" t="n">
+        <v>272651</v>
+      </c>
+      <c r="G3163" t="n">
+        <v>-2.90519877675841</v>
+      </c>
+    </row>
+    <row r="3164">
+      <c r="A3164" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B3164" t="n">
+        <v>63700</v>
+      </c>
+      <c r="C3164" t="n">
+        <v>64300</v>
+      </c>
+      <c r="D3164" t="n">
+        <v>63200</v>
+      </c>
+      <c r="E3164" t="n">
+        <v>63300</v>
+      </c>
+      <c r="F3164" t="n">
+        <v>128791</v>
+      </c>
+      <c r="G3164" t="n">
+        <v>-0.3149606299212598</v>
+      </c>
+    </row>
+    <row r="3165">
+      <c r="A3165" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B3165" t="n">
+        <v>62700</v>
+      </c>
+      <c r="C3165" t="n">
+        <v>64000</v>
+      </c>
+      <c r="D3165" t="n">
+        <v>62100</v>
+      </c>
+      <c r="E3165" t="n">
+        <v>64000</v>
+      </c>
+      <c r="F3165" t="n">
+        <v>190472</v>
+      </c>
+      <c r="G3165" t="n">
+        <v>1.105845181674566</v>
+      </c>
+    </row>
+    <row r="3166">
+      <c r="A3166" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B3166" t="n">
+        <v>63200</v>
+      </c>
+      <c r="C3166" t="n">
+        <v>63300</v>
+      </c>
+      <c r="D3166" t="n">
+        <v>60900</v>
+      </c>
+      <c r="E3166" t="n">
+        <v>60900</v>
+      </c>
+      <c r="F3166" t="n">
+        <v>308843</v>
+      </c>
+      <c r="G3166" t="n">
+        <v>-4.84375</v>
+      </c>
+    </row>
+    <row r="3167">
+      <c r="A3167" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B3167" t="n">
+        <v>60600</v>
+      </c>
+      <c r="C3167" t="n">
+        <v>61200</v>
+      </c>
+      <c r="D3167" t="n">
+        <v>60300</v>
+      </c>
+      <c r="E3167" t="n">
+        <v>60500</v>
+      </c>
+      <c r="F3167" t="n">
+        <v>198826</v>
+      </c>
+      <c r="G3167" t="n">
+        <v>-0.6568144499178982</v>
+      </c>
+    </row>
+    <row r="3168">
+      <c r="A3168" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B3168" t="n">
+        <v>60100</v>
+      </c>
+      <c r="C3168" t="n">
+        <v>60400</v>
+      </c>
+      <c r="D3168" t="n">
+        <v>59500</v>
+      </c>
+      <c r="E3168" t="n">
+        <v>60200</v>
+      </c>
+      <c r="F3168" t="n">
+        <v>205811</v>
+      </c>
+      <c r="G3168" t="n">
+        <v>-0.4958677685950413</v>
+      </c>
+    </row>
+    <row r="3169">
+      <c r="A3169" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B3169" t="n">
+        <v>60500</v>
+      </c>
+      <c r="C3169" t="n">
+        <v>62400</v>
+      </c>
+      <c r="D3169" t="n">
+        <v>60200</v>
+      </c>
+      <c r="E3169" t="n">
+        <v>61700</v>
+      </c>
+      <c r="F3169" t="n">
+        <v>261802</v>
+      </c>
+      <c r="G3169" t="n">
+        <v>2.491694352159469</v>
+      </c>
+    </row>
+    <row r="3170">
+      <c r="A3170" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B3170" t="n">
+        <v>62000</v>
+      </c>
+      <c r="C3170" t="n">
+        <v>62000</v>
+      </c>
+      <c r="D3170" t="n">
+        <v>60900</v>
+      </c>
+      <c r="E3170" t="n">
+        <v>61200</v>
+      </c>
+      <c r="F3170" t="n">
+        <v>138700</v>
+      </c>
+      <c r="G3170" t="n">
+        <v>-0.8103727714748784</v>
+      </c>
+    </row>
+    <row r="3171">
+      <c r="A3171" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B3171" t="n">
+        <v>61000</v>
+      </c>
+      <c r="C3171" t="n">
+        <v>61200</v>
+      </c>
+      <c r="D3171" t="n">
+        <v>59900</v>
+      </c>
+      <c r="E3171" t="n">
+        <v>60500</v>
+      </c>
+      <c r="F3171" t="n">
+        <v>125815</v>
+      </c>
+      <c r="G3171" t="n">
+        <v>-1.143790849673203</v>
+      </c>
+    </row>
+    <row r="3172">
+      <c r="A3172" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B3172" t="n">
+        <v>61100</v>
+      </c>
+      <c r="C3172" t="n">
+        <v>62000</v>
+      </c>
+      <c r="D3172" t="n">
+        <v>61000</v>
+      </c>
+      <c r="E3172" t="n">
+        <v>61500</v>
+      </c>
+      <c r="F3172" t="n">
+        <v>96749</v>
+      </c>
+      <c r="G3172" t="n">
+        <v>1.652892561983471</v>
+      </c>
+    </row>
+    <row r="3173">
+      <c r="A3173" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B3173" t="n">
+        <v>62000</v>
+      </c>
+      <c r="C3173" t="n">
+        <v>63300</v>
+      </c>
+      <c r="D3173" t="n">
+        <v>61800</v>
+      </c>
+      <c r="E3173" t="n">
+        <v>63000</v>
+      </c>
+      <c r="F3173" t="n">
+        <v>143655</v>
+      </c>
+      <c r="G3173" t="n">
+        <v>2.439024390243902</v>
+      </c>
+    </row>
+    <row r="3174">
+      <c r="A3174" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B3174" t="n">
+        <v>63300</v>
+      </c>
+      <c r="C3174" t="n">
+        <v>63300</v>
+      </c>
+      <c r="D3174" t="n">
+        <v>62300</v>
+      </c>
+      <c r="E3174" t="n">
+        <v>63000</v>
+      </c>
+      <c r="F3174" t="n">
+        <v>77759</v>
+      </c>
+      <c r="G3174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3175">
+      <c r="A3175" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B3175" t="n">
+        <v>62500</v>
+      </c>
+      <c r="C3175" t="n">
+        <v>64100</v>
+      </c>
+      <c r="D3175" t="n">
+        <v>62200</v>
+      </c>
+      <c r="E3175" t="n">
+        <v>63000</v>
+      </c>
+      <c r="F3175" t="n">
+        <v>91089</v>
+      </c>
+      <c r="G3175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3176">
+      <c r="A3176" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B3176" t="n">
+        <v>63200</v>
+      </c>
+      <c r="C3176" t="n">
+        <v>63300</v>
+      </c>
+      <c r="D3176" t="n">
+        <v>62500</v>
+      </c>
+      <c r="E3176" t="n">
+        <v>63100</v>
+      </c>
+      <c r="F3176" t="n">
+        <v>77991</v>
+      </c>
+      <c r="G3176" t="n">
+        <v>0.1587301587301587</v>
+      </c>
+    </row>
+    <row r="3177">
+      <c r="A3177" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B3177" t="n">
+        <v>63100</v>
+      </c>
+      <c r="C3177" t="n">
+        <v>64100</v>
+      </c>
+      <c r="D3177" t="n">
+        <v>62900</v>
+      </c>
+      <c r="E3177" t="n">
+        <v>64000</v>
+      </c>
+      <c r="F3177" t="n">
+        <v>122982</v>
+      </c>
+      <c r="G3177" t="n">
+        <v>1.426307448494453</v>
+      </c>
+    </row>
+    <row r="3178">
+      <c r="A3178" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B3178" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C3178" t="n">
+        <v>64400</v>
+      </c>
+      <c r="D3178" t="n">
+        <v>63500</v>
+      </c>
+      <c r="E3178" t="n">
+        <v>63700</v>
+      </c>
+      <c r="F3178" t="n">
+        <v>85828</v>
+      </c>
+      <c r="G3178" t="n">
+        <v>-0.46875</v>
+      </c>
+    </row>
+    <row r="3179">
+      <c r="A3179" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B3179" t="n">
+        <v>63300</v>
+      </c>
+      <c r="C3179" t="n">
+        <v>63900</v>
+      </c>
+      <c r="D3179" t="n">
+        <v>63000</v>
+      </c>
+      <c r="E3179" t="n">
+        <v>63000</v>
+      </c>
+      <c r="F3179" t="n">
+        <v>77647</v>
+      </c>
+      <c r="G3179" t="n">
+        <v>-1.098901098901099</v>
+      </c>
+    </row>
+    <row r="3180">
+      <c r="A3180" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B3180" t="n">
+        <v>63300</v>
+      </c>
+      <c r="C3180" t="n">
+        <v>64200</v>
+      </c>
+      <c r="D3180" t="n">
+        <v>63200</v>
+      </c>
+      <c r="E3180" t="n">
+        <v>63600</v>
+      </c>
+      <c r="F3180" t="n">
+        <v>50630</v>
+      </c>
+      <c r="G3180" t="n">
+        <v>0.9523809523809524</v>
+      </c>
+    </row>
+    <row r="3181">
+      <c r="A3181" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B3181" t="n">
+        <v>64200</v>
+      </c>
+      <c r="C3181" t="n">
+        <v>64200</v>
+      </c>
+      <c r="D3181" t="n">
+        <v>63700</v>
+      </c>
+      <c r="E3181" t="n">
+        <v>64100</v>
+      </c>
+      <c r="F3181" t="n">
+        <v>71820</v>
+      </c>
+      <c r="G3181" t="n">
+        <v>0.7861635220125787</v>
+      </c>
+    </row>
+    <row r="3182">
+      <c r="A3182" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B3182" t="n">
+        <v>64100</v>
+      </c>
+      <c r="C3182" t="n">
+        <v>64500</v>
+      </c>
+      <c r="D3182" t="n">
+        <v>63700</v>
+      </c>
+      <c r="E3182" t="n">
+        <v>64500</v>
+      </c>
+      <c r="F3182" t="n">
+        <v>89407</v>
+      </c>
+      <c r="G3182" t="n">
+        <v>0.62402496099844</v>
+      </c>
+    </row>
+    <row r="3183">
+      <c r="A3183" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B3183" t="n">
+        <v>64500</v>
+      </c>
+      <c r="C3183" t="n">
+        <v>64600</v>
+      </c>
+      <c r="D3183" t="n">
+        <v>63800</v>
+      </c>
+      <c r="E3183" t="n">
+        <v>63900</v>
+      </c>
+      <c r="F3183" t="n">
+        <v>117762</v>
+      </c>
+      <c r="G3183" t="n">
+        <v>-0.9302325581395349</v>
+      </c>
+    </row>
+    <row r="3184">
+      <c r="A3184" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B3184" t="n">
+        <v>64500</v>
+      </c>
+      <c r="C3184" t="n">
+        <v>64900</v>
+      </c>
+      <c r="D3184" t="n">
+        <v>64000</v>
+      </c>
+      <c r="E3184" t="n">
+        <v>64700</v>
+      </c>
+      <c r="F3184" t="n">
+        <v>98904</v>
+      </c>
+      <c r="G3184" t="n">
+        <v>1.251956181533646</v>
+      </c>
+    </row>
+    <row r="3185">
+      <c r="A3185" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B3185" t="n">
+        <v>64900</v>
+      </c>
+      <c r="C3185" t="n">
+        <v>64900</v>
+      </c>
+      <c r="D3185" t="n">
+        <v>63000</v>
+      </c>
+      <c r="E3185" t="n">
+        <v>63300</v>
+      </c>
+      <c r="F3185" t="n">
+        <v>105925</v>
+      </c>
+      <c r="G3185" t="n">
+        <v>-2.163833075734158</v>
+      </c>
+    </row>
+    <row r="3186">
+      <c r="A3186" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B3186" t="n">
+        <v>63300</v>
+      </c>
+      <c r="C3186" t="n">
+        <v>64000</v>
+      </c>
+      <c r="D3186" t="n">
+        <v>63000</v>
+      </c>
+      <c r="E3186" t="n">
+        <v>63300</v>
+      </c>
+      <c r="F3186" t="n">
+        <v>74850</v>
+      </c>
+      <c r="G3186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3187">
+      <c r="A3187" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B3187" t="n">
+        <v>63800</v>
+      </c>
+      <c r="C3187" t="n">
+        <v>66800</v>
+      </c>
+      <c r="D3187" t="n">
+        <v>62100</v>
+      </c>
+      <c r="E3187" t="n">
+        <v>65300</v>
+      </c>
+      <c r="F3187" t="n">
+        <v>645941</v>
+      </c>
+      <c r="G3187" t="n">
+        <v>3.15955766192733</v>
+      </c>
+    </row>
+    <row r="3188">
+      <c r="A3188" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B3188" t="n">
+        <v>64700</v>
+      </c>
+      <c r="C3188" t="n">
+        <v>66300</v>
+      </c>
+      <c r="D3188" t="n">
+        <v>64500</v>
+      </c>
+      <c r="E3188" t="n">
+        <v>65500</v>
+      </c>
+      <c r="F3188" t="n">
+        <v>359888</v>
+      </c>
+      <c r="G3188" t="n">
+        <v>0.3062787136294028</v>
+      </c>
+    </row>
+    <row r="3189">
+      <c r="A3189" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B3189" t="n">
+        <v>65400</v>
+      </c>
+      <c r="C3189" t="n">
+        <v>65500</v>
+      </c>
+      <c r="D3189" t="n">
+        <v>63000</v>
+      </c>
+      <c r="E3189" t="n">
+        <v>63000</v>
+      </c>
+      <c r="F3189" t="n">
+        <v>238611</v>
+      </c>
+      <c r="G3189" t="n">
+        <v>-3.816793893129771</v>
+      </c>
+    </row>
+    <row r="3190">
+      <c r="A3190" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B3190" t="n">
+        <v>63200</v>
+      </c>
+      <c r="C3190" t="n">
+        <v>63400</v>
+      </c>
+      <c r="D3190" t="n">
+        <v>62000</v>
+      </c>
+      <c r="E3190" t="n">
+        <v>62300</v>
+      </c>
+      <c r="F3190" t="n">
+        <v>184881</v>
+      </c>
+      <c r="G3190" t="n">
+        <v>-1.111111111111111</v>
       </c>
     </row>
   </sheetData>
